--- a/global_data/day_data/603280.xlsx
+++ b/global_data/day_data/603280.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I600"/>
+  <dimension ref="A1:I602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17808,6 +17810,64 @@
         <v>0.5277861911388464</v>
       </c>
     </row>
+    <row r="601" spans="1:9">
+      <c r="A601" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B601">
+        <v>23.03</v>
+      </c>
+      <c r="C601">
+        <v>24.46</v>
+      </c>
+      <c r="D601">
+        <v>23.03</v>
+      </c>
+      <c r="E601">
+        <v>23.9</v>
+      </c>
+      <c r="F601">
+        <v>10214226</v>
+      </c>
+      <c r="G601">
+        <v>243530545</v>
+      </c>
+      <c r="H601">
+        <v>27941667</v>
+      </c>
+      <c r="I601">
+        <v>0.3655553550187252</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9">
+      <c r="A602" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B602">
+        <v>23.9</v>
+      </c>
+      <c r="C602">
+        <v>25.5</v>
+      </c>
+      <c r="D602">
+        <v>23.42</v>
+      </c>
+      <c r="E602">
+        <v>24.52</v>
+      </c>
+      <c r="F602">
+        <v>9730386</v>
+      </c>
+      <c r="G602">
+        <v>236566257</v>
+      </c>
+      <c r="H602">
+        <v>27941667</v>
+      </c>
+      <c r="I602">
+        <v>0.3482392800687231</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
